--- a/result/analysis_poli_only.xlsx
+++ b/result/analysis_poli_only.xlsx
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1270381512907549</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1916653818437767</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3763888888888889</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06735753140545635</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07638888888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06033381659354804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06180555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03197590700576933</v>
+        <v>0.0707106781186547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.8833333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2304266351795243</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2826388888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2731481815389116</v>
+        <v>0.02357022603955159</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.08333333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2770999412893639</v>
+        <v>0.4242640687119285</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5381944444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0291645558168961</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01736111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -576,10 +576,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1662879858782315</v>
+        <v>0.04714045207910317</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2527777777777778</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="12">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.09533804068458741</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1631944444444444</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="13">
@@ -603,10 +603,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05992837858223485</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05138888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06262890567968712</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05694444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.08047093460372415</v>
+        <v>0.04714045207910317</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1069444444444445</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01483757609256311</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.006249999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004811252243246881</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0006944444444444445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01237625907979009</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.003472222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.03889099960499612</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02847222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06143798246621798</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05277777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0603215706308509</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04027777777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2012948137654256</v>
+        <v>0.04714045207910316</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4618055555555556</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="24">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09960520967067045</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08055555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02834237096856541</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01597222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -774,10 +774,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07373506446781272</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05069444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.06545891823395296</v>
+        <v>0.07071067811865477</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07916666666666666</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01883108942886774</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01717602283537409</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007638888888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2105754059144708</v>
+        <v>0.07071067811865475</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2972222222222222</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06225028917810805</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03472222222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01678445376236197</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006944444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.171213107821779</v>
+        <v>0.02357022603955158</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1618055555555556</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="34">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01066633421467733</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002083333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01630820182633606</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004166666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01635343964368563</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.006249999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03588765194129775</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02986111111111111</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.09593115718442166</v>
+        <v>0.02958751215328648</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04293981481481482</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="3">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1660538077194107</v>
+        <v>0.04522670168666454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1075231481481481</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="4">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3159958092273934</v>
+        <v>0.2917960375608824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2925347222222222</v>
+        <v>0.1916666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06240653096003135</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03854166666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05737335285141527</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03761574074074074</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2373854951553662</v>
+        <v>0.1790308024299028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.0601851851851852</v>
       </c>
     </row>
     <row r="3">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2246993994646738</v>
+        <v>0.2000440868516322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1247299382716049</v>
+        <v>0.07962962962962963</v>
       </c>
     </row>
   </sheetData>
